--- a/biology/Histoire de la zoologie et de la botanique/John_Read_le_Brockton_Tomlin/John_Read_le_Brockton_Tomlin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Read_le_Brockton_Tomlin/John_Read_le_Brockton_Tomlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Read le Brockton Tomlin est un conchyliologiste et un entomologiste britannique, né le 15 août 1864 et mort le 24 décembre 1954.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se consacre à l’étude des coléoptères et des coquillages. Il acquiert l’immense collection de James Cosmo Melvill (1845-1929). On estime que la collection de Tomlin regroupe un million de spécimens et plus de 30 000 espèces et sa bibliothèque 2 000 volumes et plus de 7 000 articles et tirés à part. Il lègue le tout au Muséum national du Pays de Galles.
 </t>
